--- a/Data/sra_metadata.xlsx
+++ b/Data/sra_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67C1E9A-0206-5146-9A14-44D55C69DCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A5714-F644-3546-899C-AF8DDB459ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="460" windowWidth="27520" windowHeight="17460" xr2:uid="{F8E243A1-C869-4C44-A7ED-275512EE4C3C}"/>
   </bookViews>
@@ -1689,7 +1689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/sra_metadata.xlsx
+++ b/Data/sra_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A5714-F644-3546-899C-AF8DDB459ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5519D0-71C9-844A-B01D-3C5448E32F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="460" windowWidth="27520" windowHeight="17460" xr2:uid="{F8E243A1-C869-4C44-A7ED-275512EE4C3C}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="399">
   <si>
     <t>date_collected</t>
   </si>
@@ -1135,22 +1135,166 @@
     <t>C54R1</t>
   </si>
   <si>
-    <t>SC01BS</t>
-  </si>
-  <si>
-    <t>SC02BS</t>
-  </si>
-  <si>
-    <t>SC03BS</t>
-  </si>
-  <si>
-    <t>SC04BS</t>
-  </si>
-  <si>
-    <t>SC05BS</t>
-  </si>
-  <si>
-    <t>SC06BS</t>
+    <t>C01BS</t>
+  </si>
+  <si>
+    <t>C02BS</t>
+  </si>
+  <si>
+    <t>C03BS</t>
+  </si>
+  <si>
+    <t>C04BS</t>
+  </si>
+  <si>
+    <t>C05BS</t>
+  </si>
+  <si>
+    <t>C06BS</t>
+  </si>
+  <si>
+    <t>C07BS</t>
+  </si>
+  <si>
+    <t>C08BS</t>
+  </si>
+  <si>
+    <t>C09BS</t>
+  </si>
+  <si>
+    <t>C10BS</t>
+  </si>
+  <si>
+    <t>C11BS</t>
+  </si>
+  <si>
+    <t>C12BS</t>
+  </si>
+  <si>
+    <t>C13BS</t>
+  </si>
+  <si>
+    <t>C14BS</t>
+  </si>
+  <si>
+    <t>C15BS</t>
+  </si>
+  <si>
+    <t>C16BS</t>
+  </si>
+  <si>
+    <t>C17BS</t>
+  </si>
+  <si>
+    <t>C18BS</t>
+  </si>
+  <si>
+    <t>C19BS</t>
+  </si>
+  <si>
+    <t>C20BS</t>
+  </si>
+  <si>
+    <t>C21BS</t>
+  </si>
+  <si>
+    <t>C22BS</t>
+  </si>
+  <si>
+    <t>C23BS</t>
+  </si>
+  <si>
+    <t>C24BS</t>
+  </si>
+  <si>
+    <t>C25BS</t>
+  </si>
+  <si>
+    <t>C26BS</t>
+  </si>
+  <si>
+    <t>C27BS</t>
+  </si>
+  <si>
+    <t>C28BS</t>
+  </si>
+  <si>
+    <t>C29BS</t>
+  </si>
+  <si>
+    <t>C30BS</t>
+  </si>
+  <si>
+    <t>C31BS</t>
+  </si>
+  <si>
+    <t>C32BS</t>
+  </si>
+  <si>
+    <t>C33BS</t>
+  </si>
+  <si>
+    <t>C34BS</t>
+  </si>
+  <si>
+    <t>C35BS</t>
+  </si>
+  <si>
+    <t>C36BS</t>
+  </si>
+  <si>
+    <t>C37BS</t>
+  </si>
+  <si>
+    <t>C38BS</t>
+  </si>
+  <si>
+    <t>C39BS</t>
+  </si>
+  <si>
+    <t>C40BS</t>
+  </si>
+  <si>
+    <t>C41BS</t>
+  </si>
+  <si>
+    <t>C42BS</t>
+  </si>
+  <si>
+    <t>C43BS</t>
+  </si>
+  <si>
+    <t>C44BS</t>
+  </si>
+  <si>
+    <t>C45BS</t>
+  </si>
+  <si>
+    <t>C46BS</t>
+  </si>
+  <si>
+    <t>C47BS</t>
+  </si>
+  <si>
+    <t>C48BS</t>
+  </si>
+  <si>
+    <t>C49BS</t>
+  </si>
+  <si>
+    <t>C50BS</t>
+  </si>
+  <si>
+    <t>C51BS</t>
+  </si>
+  <si>
+    <t>C52BS</t>
+  </si>
+  <si>
+    <t>C53BS</t>
+  </si>
+  <si>
+    <t>C54BS</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1833,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B116" sqref="B116"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1908,7 +2052,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>345</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1951,7 +2095,7 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>346</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1973,7 +2117,7 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>347</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1995,7 +2139,7 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>348</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2017,7 +2161,7 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>349</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2039,7 +2183,7 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>350</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2061,6 +2205,9 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>351</v>
+      </c>
       <c r="B9" s="8" t="s">
         <v>79</v>
       </c>
@@ -2080,6 +2227,9 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>352</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>80</v>
       </c>
@@ -2099,6 +2249,9 @@
       <c r="Y10" s="9"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>353</v>
+      </c>
       <c r="B11" s="8" t="s">
         <v>81</v>
       </c>
@@ -2118,6 +2271,9 @@
       <c r="Y11" s="9"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>354</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>82</v>
       </c>
@@ -2137,6 +2293,9 @@
       <c r="Y12" s="9"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>355</v>
+      </c>
       <c r="B13" s="8" t="s">
         <v>83</v>
       </c>
@@ -2156,6 +2315,9 @@
       <c r="Y13" s="9"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>356</v>
+      </c>
       <c r="B14" s="8" t="s">
         <v>84</v>
       </c>
@@ -2175,6 +2337,9 @@
       <c r="Y14" s="9"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>357</v>
+      </c>
       <c r="B15" s="8" t="s">
         <v>85</v>
       </c>
@@ -2194,6 +2359,9 @@
       <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>358</v>
+      </c>
       <c r="B16" s="8" t="s">
         <v>86</v>
       </c>
@@ -2212,7 +2380,10 @@
       <c r="W16" s="9"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>359</v>
+      </c>
       <c r="B17" s="8" t="s">
         <v>87</v>
       </c>
@@ -2231,7 +2402,10 @@
       <c r="W17" s="9"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>360</v>
+      </c>
       <c r="B18" s="8" t="s">
         <v>88</v>
       </c>
@@ -2250,7 +2424,10 @@
       <c r="W18" s="9"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>361</v>
+      </c>
       <c r="B19" s="8" t="s">
         <v>89</v>
       </c>
@@ -2269,7 +2446,10 @@
       <c r="W19" s="9"/>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>362</v>
+      </c>
       <c r="B20" s="8" t="s">
         <v>90</v>
       </c>
@@ -2288,7 +2468,10 @@
       <c r="W20" s="9"/>
       <c r="Y20" s="9"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>363</v>
+      </c>
       <c r="B21" s="8" t="s">
         <v>93</v>
       </c>
@@ -2301,7 +2484,10 @@
       <c r="W21" s="9"/>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>364</v>
+      </c>
       <c r="B22" s="8" t="s">
         <v>94</v>
       </c>
@@ -2314,7 +2500,10 @@
       <c r="W22" s="9"/>
       <c r="Y22" s="9"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>365</v>
+      </c>
       <c r="B23" s="8" t="s">
         <v>95</v>
       </c>
@@ -2327,7 +2516,10 @@
       <c r="W23" s="9"/>
       <c r="Y23" s="9"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>366</v>
+      </c>
       <c r="B24" s="8" t="s">
         <v>96</v>
       </c>
@@ -2340,7 +2532,10 @@
       <c r="W24" s="9"/>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>367</v>
+      </c>
       <c r="B25" s="8" t="s">
         <v>97</v>
       </c>
@@ -2353,7 +2548,10 @@
       <c r="W25" s="9"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>368</v>
+      </c>
       <c r="B26" s="8" t="s">
         <v>98</v>
       </c>
@@ -2366,7 +2564,10 @@
       <c r="W26" s="9"/>
       <c r="Y26" s="9"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>369</v>
+      </c>
       <c r="B27" s="8" t="s">
         <v>99</v>
       </c>
@@ -2379,7 +2580,10 @@
       <c r="W27" s="9"/>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>370</v>
+      </c>
       <c r="B28" s="8" t="s">
         <v>100</v>
       </c>
@@ -2392,7 +2596,10 @@
       <c r="W28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>371</v>
+      </c>
       <c r="B29" s="8" t="s">
         <v>101</v>
       </c>
@@ -2405,7 +2612,10 @@
       <c r="W29" s="9"/>
       <c r="Y29" s="9"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>372</v>
+      </c>
       <c r="B30" s="8" t="s">
         <v>102</v>
       </c>
@@ -2418,7 +2628,10 @@
       <c r="W30" s="9"/>
       <c r="Y30" s="9"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>373</v>
+      </c>
       <c r="B31" s="8" t="s">
         <v>103</v>
       </c>
@@ -2431,7 +2644,10 @@
       <c r="W31" s="9"/>
       <c r="Y31" s="9"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>374</v>
+      </c>
       <c r="B32" s="8" t="s">
         <v>104</v>
       </c>
@@ -2444,7 +2660,10 @@
       <c r="W32" s="9"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>375</v>
+      </c>
       <c r="B33" s="8" t="s">
         <v>105</v>
       </c>
@@ -2457,7 +2676,10 @@
       <c r="W33" s="9"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>376</v>
+      </c>
       <c r="B34" s="8" t="s">
         <v>106</v>
       </c>
@@ -2470,7 +2692,10 @@
       <c r="W34" s="9"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>377</v>
+      </c>
       <c r="B35" s="8" t="s">
         <v>107</v>
       </c>
@@ -2483,7 +2708,10 @@
       <c r="W35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>378</v>
+      </c>
       <c r="B36" s="8" t="s">
         <v>108</v>
       </c>
@@ -2496,7 +2724,10 @@
       <c r="W36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>379</v>
+      </c>
       <c r="B37" s="8" t="s">
         <v>109</v>
       </c>
@@ -2509,7 +2740,10 @@
       <c r="W37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>380</v>
+      </c>
       <c r="B38" s="8" t="s">
         <v>110</v>
       </c>
@@ -2522,7 +2756,10 @@
       <c r="W38" s="9"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>381</v>
+      </c>
       <c r="B39" s="8" t="s">
         <v>111</v>
       </c>
@@ -2535,7 +2772,10 @@
       <c r="W39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>382</v>
+      </c>
       <c r="B40" s="8" t="s">
         <v>112</v>
       </c>
@@ -2548,7 +2788,10 @@
       <c r="W40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>383</v>
+      </c>
       <c r="B41" s="8" t="s">
         <v>113</v>
       </c>
@@ -2561,7 +2804,10 @@
       <c r="W41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>384</v>
+      </c>
       <c r="B42" s="8" t="s">
         <v>114</v>
       </c>
@@ -2574,7 +2820,10 @@
       <c r="W42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>385</v>
+      </c>
       <c r="B43" s="8" t="s">
         <v>115</v>
       </c>
@@ -2587,7 +2836,10 @@
       <c r="W43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>386</v>
+      </c>
       <c r="B44" s="8" t="s">
         <v>116</v>
       </c>
@@ -2600,7 +2852,10 @@
       <c r="W44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>387</v>
+      </c>
       <c r="B45" s="8" t="s">
         <v>117</v>
       </c>
@@ -2613,7 +2868,10 @@
       <c r="W45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>388</v>
+      </c>
       <c r="B46" s="8" t="s">
         <v>118</v>
       </c>
@@ -2626,7 +2884,10 @@
       <c r="W46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>389</v>
+      </c>
       <c r="B47" s="8" t="s">
         <v>119</v>
       </c>
@@ -2639,7 +2900,10 @@
       <c r="W47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>390</v>
+      </c>
       <c r="B48" s="8" t="s">
         <v>120</v>
       </c>
@@ -2653,6 +2917,9 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>391</v>
+      </c>
       <c r="B49" s="8" t="s">
         <v>121</v>
       </c>
@@ -2666,6 +2933,9 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>392</v>
+      </c>
       <c r="B50" s="8" t="s">
         <v>122</v>
       </c>
@@ -2679,6 +2949,9 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>393</v>
+      </c>
       <c r="B51" s="8" t="s">
         <v>123</v>
       </c>
@@ -2692,6 +2965,9 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>394</v>
+      </c>
       <c r="B52" s="8" t="s">
         <v>124</v>
       </c>
@@ -2705,6 +2981,9 @@
       <c r="Y52" s="9"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>395</v>
+      </c>
       <c r="B53" s="8" t="s">
         <v>125</v>
       </c>
@@ -2718,6 +2997,9 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>396</v>
+      </c>
       <c r="B54" s="8" t="s">
         <v>126</v>
       </c>
@@ -2731,6 +3013,9 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>397</v>
+      </c>
       <c r="B55" s="8" t="s">
         <v>127</v>
       </c>
@@ -2744,6 +3029,9 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>398</v>
+      </c>
       <c r="B56" s="8" t="s">
         <v>128</v>
       </c>

--- a/Data/sra_metadata.xlsx
+++ b/Data/sra_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5519D0-71C9-844A-B01D-3C5448E32F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEA2090-E392-AE49-9F49-A8E942958940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="460" windowWidth="27520" windowHeight="17460" xr2:uid="{F8E243A1-C869-4C44-A7ED-275512EE4C3C}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="496">
   <si>
     <t>date_collected</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Column name</t>
   </si>
   <si>
-    <t>CABBI1001</t>
-  </si>
-  <si>
     <t>Format: YYYYMMDD</t>
   </si>
   <si>
@@ -190,48 +187,18 @@
     <t>/mnt/research/germs/raw/cabbi</t>
   </si>
   <si>
-    <t>CABBI1001_R1_L001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/mnt/research/germs/germs_raw_data/CABBI</t>
-  </si>
-  <si>
     <t>Sample contact</t>
   </si>
   <si>
-    <t>Jin Choi</t>
-  </si>
-  <si>
     <t>Subsampled Volume</t>
   </si>
   <si>
     <t>other data collected</t>
   </si>
   <si>
-    <t>pH, nitrates, ment plating</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>42.0308° N</t>
-  </si>
-  <si>
-    <t>93.6319° W</t>
-  </si>
-  <si>
     <t>Subsample contact</t>
   </si>
   <si>
-    <t>10 g</t>
-  </si>
-  <si>
-    <t>50 g</t>
-  </si>
-  <si>
     <t>sample_for_dna</t>
   </si>
   <si>
@@ -241,18 +208,12 @@
     <t>Location of subsamples</t>
   </si>
   <si>
-    <t>freezerA; rack 1</t>
-  </si>
-  <si>
     <t>contact for DNA</t>
   </si>
   <si>
     <t>seq facility</t>
   </si>
   <si>
-    <t>USDA</t>
-  </si>
-  <si>
     <t>Contact for data</t>
   </si>
   <si>
@@ -295,15 +256,9 @@
     <t>Container (box) label</t>
   </si>
   <si>
-    <t>(A1-H12)</t>
-  </si>
-  <si>
     <t>unique sample_id</t>
   </si>
   <si>
-    <t>Change column title or add more columns according to your experiment</t>
-  </si>
-  <si>
     <t>SSCAMR00001</t>
   </si>
   <si>
@@ -1295,13 +1250,349 @@
   </si>
   <si>
     <t>C54BS</t>
+  </si>
+  <si>
+    <t>Block 2</t>
+  </si>
+  <si>
+    <t>Block 3</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>Column 4</t>
+  </si>
+  <si>
+    <t>Column 5</t>
+  </si>
+  <si>
+    <t>Column 6</t>
+  </si>
+  <si>
+    <t>Column 7</t>
+  </si>
+  <si>
+    <t>Column 8</t>
+  </si>
+  <si>
+    <t>Column 9</t>
+  </si>
+  <si>
+    <t>Column 10</t>
+  </si>
+  <si>
+    <t>Column 11</t>
+  </si>
+  <si>
+    <t>Column 12</t>
+  </si>
+  <si>
+    <t>Column 13</t>
+  </si>
+  <si>
+    <t>Column 14</t>
+  </si>
+  <si>
+    <t>Column 15</t>
+  </si>
+  <si>
+    <t>Column 16</t>
+  </si>
+  <si>
+    <t>Column 17</t>
+  </si>
+  <si>
+    <t>Column 18</t>
+  </si>
+  <si>
+    <t>Column 19</t>
+  </si>
+  <si>
+    <t>Column 20</t>
+  </si>
+  <si>
+    <t>Column 21</t>
+  </si>
+  <si>
+    <t>Column 22</t>
+  </si>
+  <si>
+    <t>Column 23</t>
+  </si>
+  <si>
+    <t>Column 24</t>
+  </si>
+  <si>
+    <t>Column 25</t>
+  </si>
+  <si>
+    <t>Column 26</t>
+  </si>
+  <si>
+    <t>Column 27</t>
+  </si>
+  <si>
+    <t>Column 28</t>
+  </si>
+  <si>
+    <t>Column 29</t>
+  </si>
+  <si>
+    <t>Column 30</t>
+  </si>
+  <si>
+    <t>Column 31</t>
+  </si>
+  <si>
+    <t>Column 32</t>
+  </si>
+  <si>
+    <t>Column 33</t>
+  </si>
+  <si>
+    <t>Column 34</t>
+  </si>
+  <si>
+    <t>Column 35</t>
+  </si>
+  <si>
+    <t>Column 36</t>
+  </si>
+  <si>
+    <t>Column 37</t>
+  </si>
+  <si>
+    <t>Column 38</t>
+  </si>
+  <si>
+    <t>Column 39</t>
+  </si>
+  <si>
+    <t>Column 40</t>
+  </si>
+  <si>
+    <t>Column 41</t>
+  </si>
+  <si>
+    <t>Column 42</t>
+  </si>
+  <si>
+    <t>Column 43</t>
+  </si>
+  <si>
+    <t>Column 44</t>
+  </si>
+  <si>
+    <t>Column 45</t>
+  </si>
+  <si>
+    <t>Column 46</t>
+  </si>
+  <si>
+    <t>Column 47</t>
+  </si>
+  <si>
+    <t>Column 48</t>
+  </si>
+  <si>
+    <t>Column 49</t>
+  </si>
+  <si>
+    <t>Column 50</t>
+  </si>
+  <si>
+    <t>Column 51</t>
+  </si>
+  <si>
+    <t>Column 52</t>
+  </si>
+  <si>
+    <t>Column 53</t>
+  </si>
+  <si>
+    <t>Column 54</t>
+  </si>
+  <si>
+    <t>4th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>5th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>6th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>7th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>8th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>9th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>10th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>11th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>12th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>13th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>14th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>15th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>16th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>17th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>18th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>19th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>20th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>21st Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>22nd Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>23rd Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>24th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>25th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>26th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>27th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>28th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>29th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>30th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>31st Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>32nd Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>33rd Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>34th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>35th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>36th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>37th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>38th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>39th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>40th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>41st Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>42nd Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>43rd Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>44th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>45th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>46th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>47th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>48th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>49th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>50th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>51st Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>52nd Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>53rd Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>54th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>55th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>56th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>57th Floor -20 walk in. Grey tub on east side middle shelf label: Jared/Grace 2021 Soil Column STRIPs/Germs Baseline Soil Samples</t>
+  </si>
+  <si>
+    <t>GPSLongitude</t>
+  </si>
+  <si>
+    <t>GPSLatitude</t>
+  </si>
+  <si>
+    <t>soil_health_from_this_block</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1317,19 +1608,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1343,7 +1621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1388,18 +1666,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFACB9CA"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1422,48 +1694,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1474,18 +1709,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1829,11 +2053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93744D26-0588-F945-9678-1D72DF02228C}">
-  <dimension ref="A1:AH997"/>
+  <dimension ref="A1:AH996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1847,7 +2071,7 @@
     <col min="8" max="9" width="22.5" style="3" customWidth="1"/>
     <col min="10" max="14" width="13.1640625" style="3" customWidth="1"/>
     <col min="15" max="15" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="112.5" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.1640625" style="5" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" style="5"/>
@@ -1874,97 +2098,97 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AB1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AG1" s="7" t="s">
         <v>7</v>
@@ -1973,2154 +2197,3733 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10">
-        <v>20180505</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="10">
-        <v>20180909</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="10">
-        <v>20181010</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="10">
-        <v>24</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="10" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20210524</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-91.938622222222193</v>
+      </c>
+      <c r="F2" s="3">
+        <v>42.349766666666703</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H2" s="3">
         <v>50</v>
       </c>
-      <c r="AF2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="W2" s="9"/>
+      <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="3">
+        <v>59</v>
+      </c>
+      <c r="C3" s="10">
         <v>20210524</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="4">
-        <v>42.349800000000002</v>
-      </c>
-      <c r="F3" s="4">
-        <v>-91.938900000000004</v>
+        <v>54</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-91.938622222222193</v>
+      </c>
+      <c r="F3" s="3">
+        <v>42.349766666666703</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H3" s="3">
         <v>50</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="W3" s="9"/>
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="12">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10">
         <v>20210524</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-91.938927777777806</v>
+      </c>
+      <c r="F4" s="3">
+        <v>42.349847222222202</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H4" s="3">
         <v>50</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="W4" s="9"/>
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="12">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3">
         <v>20210524</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-91.938888888888897</v>
+      </c>
+      <c r="F5" s="3">
+        <v>42.349833333333301</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H5" s="3">
         <v>50</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="W5" s="9"/>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="3">
+        <v>62</v>
+      </c>
+      <c r="C6" s="10">
         <v>20210524</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-91.938599999999994</v>
+      </c>
+      <c r="F6" s="3">
+        <v>42.349755555555603</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H6" s="3">
         <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="W6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="12">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10">
         <v>20210524</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-91.938599999999994</v>
+      </c>
+      <c r="F7" s="3">
+        <v>42.349755555555603</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H7" s="3">
         <v>50</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="W7" s="9"/>
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="12">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3">
         <v>20210524</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-91.938872222222201</v>
+      </c>
+      <c r="F8" s="3">
+        <v>42.349838888888897</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H8" s="3">
         <v>50</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="W8" s="9"/>
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="3">
+        <v>65</v>
+      </c>
+      <c r="C9" s="10">
         <v>20210524</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-91.938872222222201</v>
+      </c>
+      <c r="F9" s="3">
+        <v>42.349838888888897</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H9" s="3">
         <v>50</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="W9" s="9"/>
       <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="12">
+        <v>66</v>
+      </c>
+      <c r="C10" s="10">
         <v>20210524</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-91.9387055555556</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42.349883333333302</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H10" s="3">
         <v>50</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="W10" s="9"/>
       <c r="Y10" s="9"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="12">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3">
         <v>20210524</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-91.9387055555556</v>
+      </c>
+      <c r="F11" s="3">
+        <v>42.349883333333302</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H11" s="3">
         <v>50</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="W11" s="9"/>
       <c r="Y11" s="9"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="3">
+        <v>68</v>
+      </c>
+      <c r="C12" s="10">
         <v>20210524</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-91.938919444444494</v>
+      </c>
+      <c r="F12" s="3">
+        <v>42.349827777777797</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H12" s="3">
         <v>50</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="W12" s="9"/>
       <c r="Y12" s="9"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="12">
+        <v>69</v>
+      </c>
+      <c r="C13" s="10">
         <v>20210524</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-91.938919444444494</v>
+      </c>
+      <c r="F13" s="3">
+        <v>42.349827777777797</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H13" s="3">
         <v>50</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="W13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="12">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3">
         <v>20210524</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-91.938880555555599</v>
+      </c>
+      <c r="F14" s="3">
+        <v>42.349800000000002</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H14" s="3">
         <v>50</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="W14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="3">
+        <v>71</v>
+      </c>
+      <c r="C15" s="10">
         <v>20210524</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-91.938880555555599</v>
+      </c>
+      <c r="F15" s="3">
+        <v>42.349800000000002</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H15" s="3">
         <v>50</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="W15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="12">
+        <v>72</v>
+      </c>
+      <c r="C16" s="10">
         <v>20210524</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-91.938811111111093</v>
+      </c>
+      <c r="F16" s="3">
+        <v>42.349769444444398</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H16" s="3">
         <v>50</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="W16" s="9"/>
       <c r="Y16" s="9"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="12">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3">
         <v>20210524</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-91.938880555555599</v>
+      </c>
+      <c r="F17" s="3">
+        <v>42.349852777777798</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H17" s="3">
         <v>50</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="W17" s="9"/>
       <c r="Y17" s="9"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="3">
+        <v>74</v>
+      </c>
+      <c r="C18" s="10">
         <v>20210524</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-91.938880555555599</v>
+      </c>
+      <c r="F18" s="3">
+        <v>42.349852777777798</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H18" s="3">
         <v>50</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="W18" s="9"/>
       <c r="Y18" s="9"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="12">
+        <v>75</v>
+      </c>
+      <c r="C19" s="10">
         <v>20210524</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-91.938880555555599</v>
+      </c>
+      <c r="F19" s="3">
+        <v>42.349852777777798</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H19" s="3">
         <v>50</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="W19" s="9"/>
       <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="12">
-        <v>20210524</v>
+        <v>78</v>
+      </c>
+      <c r="C20" s="3">
+        <v>20210526</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-91.9388583333333</v>
+      </c>
+      <c r="F20" s="3">
+        <v>42.349833333333301</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H20" s="3">
         <v>50</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="W20" s="9"/>
       <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3">
         <v>20210526</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-91.938866666666698</v>
+      </c>
+      <c r="F21" s="3">
+        <v>42.349833333333301</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H21" s="3">
+        <v>50</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="W21" s="9"/>
       <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3">
         <v>20210526</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-91.938836111111101</v>
+      </c>
+      <c r="F22" s="3">
+        <v>42.349827777777797</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="3">
+        <v>50</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="W22" s="9"/>
       <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3">
         <v>20210526</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-91.938841666666704</v>
+      </c>
+      <c r="F23" s="3">
+        <v>42.3498194444444</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H23" s="3">
+        <v>50</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="W23" s="9"/>
       <c r="Y23" s="9"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3">
         <v>20210526</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-91.938841666666704</v>
+      </c>
+      <c r="F24" s="3">
+        <v>42.349830555555599</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H24" s="3">
+        <v>50</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="W24" s="9"/>
       <c r="Y24" s="9"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3">
         <v>20210526</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-91.938841666666704</v>
+      </c>
+      <c r="F25" s="3">
+        <v>42.349830555555599</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H25" s="3">
+        <v>50</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="W25" s="9"/>
       <c r="Y25" s="9"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3">
         <v>20210526</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-91.938836111111101</v>
+      </c>
+      <c r="F26" s="3">
+        <v>42.349838888888897</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H26" s="3">
+        <v>50</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="W26" s="9"/>
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3">
         <v>20210526</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-91.938819444444405</v>
+      </c>
+      <c r="F27" s="3">
+        <v>42.349822222222201</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H27" s="3">
+        <v>50</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="W27" s="9"/>
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3">
         <v>20210526</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-91.938827777777803</v>
+      </c>
+      <c r="F28" s="3">
+        <v>42.3498194444444</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H28" s="3">
+        <v>50</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="W28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C29" s="3">
         <v>20210526</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-91.938827777777803</v>
+      </c>
+      <c r="F29" s="3">
+        <v>42.349830555555599</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H29" s="3">
+        <v>50</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="W29" s="9"/>
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3">
         <v>20210526</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-91.938819444444405</v>
+      </c>
+      <c r="F30" s="3">
+        <v>42.349830555555599</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H30" s="3">
+        <v>50</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="W30" s="9"/>
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3">
         <v>20210526</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-91.938819444444405</v>
+      </c>
+      <c r="F31" s="3">
+        <v>42.349822222222201</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H31" s="3">
+        <v>50</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="W31" s="9"/>
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3">
         <v>20210526</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-91.938811111111093</v>
+      </c>
+      <c r="F32" s="3">
+        <v>42.349822222222201</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H32" s="3">
+        <v>50</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="W32" s="9"/>
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C33" s="3">
         <v>20210526</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-91.938811111111093</v>
+      </c>
+      <c r="F33" s="3">
+        <v>42.349827777777797</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H33" s="3">
+        <v>50</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="W33" s="9"/>
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C34" s="3">
         <v>20210526</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-91.938811111111093</v>
+      </c>
+      <c r="F34" s="3">
+        <v>42.349830555555599</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H34" s="3">
+        <v>50</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="W34" s="9"/>
       <c r="Y34" s="9"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C35" s="3">
         <v>20210526</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-91.938819444444405</v>
+      </c>
+      <c r="F35" s="3">
+        <v>42.349830555555599</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H35" s="3">
+        <v>50</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="W35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C36" s="3">
         <v>20210526</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E36" s="3">
+        <v>-91.938819444444405</v>
+      </c>
+      <c r="F36" s="3">
+        <v>42.349833333333301</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H36" s="3">
+        <v>50</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="W36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C37" s="3">
         <v>20210526</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E37" s="3">
+        <v>-91.938811111111093</v>
+      </c>
+      <c r="F37" s="3">
+        <v>42.349838888888897</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H37" s="3">
+        <v>50</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="W37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C38" s="3">
-        <v>20210526</v>
+        <v>20210528</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E38" s="3">
+        <v>-91.938797222222206</v>
+      </c>
+      <c r="F38" s="3">
+        <v>42.349850000000004</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H38" s="3">
+        <v>50</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="W38" s="9"/>
       <c r="Y38" s="9"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3">
         <v>20210528</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E39" s="3">
+        <v>-91.938797222222206</v>
+      </c>
+      <c r="F39" s="3">
+        <v>42.349847222222202</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H39" s="3">
+        <v>50</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="W39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C40" s="3">
         <v>20210528</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E40" s="3">
+        <v>-91.938788888888894</v>
+      </c>
+      <c r="F40" s="3">
+        <v>42.349850000000004</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H40" s="3">
+        <v>50</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="W40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C41" s="3">
         <v>20210528</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E41" s="3">
+        <v>-91.938780555555596</v>
+      </c>
+      <c r="F41" s="3">
+        <v>42.349847222222202</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H41" s="3">
+        <v>50</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="W41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C42" s="3">
         <v>20210528</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E42" s="3">
+        <v>-91.938775000000007</v>
+      </c>
+      <c r="F42" s="3">
+        <v>42.349852777777798</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H42" s="3">
+        <v>50</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="W42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3">
         <v>20210528</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E43" s="3">
+        <v>-91.938775000000007</v>
+      </c>
+      <c r="F43" s="3">
+        <v>42.349847222222202</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H43" s="3">
+        <v>50</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="W43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C44" s="3">
         <v>20210528</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E44" s="3">
+        <v>-91.938775000000007</v>
+      </c>
+      <c r="F44" s="3">
+        <v>42.349850000000004</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H44" s="3">
+        <v>50</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="W44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3">
         <v>20210528</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E45" s="3">
+        <v>-91.938775000000007</v>
+      </c>
+      <c r="F45" s="3">
+        <v>42.349850000000004</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H45" s="3">
+        <v>50</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="W45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3">
         <v>20210528</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E46" s="3">
+        <v>-91.938766666666695</v>
+      </c>
+      <c r="F46" s="3">
+        <v>42.349847222222202</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H46" s="3">
+        <v>50</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="W46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C47" s="3">
         <v>20210528</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E47" s="3">
+        <v>-91.938766666666695</v>
+      </c>
+      <c r="F47" s="3">
+        <v>42.349841666666698</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H47" s="3">
+        <v>50</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="W47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C48" s="3">
         <v>20210528</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E48" s="3">
+        <v>-91.938780555555596</v>
+      </c>
+      <c r="F48" s="3">
+        <v>42.349841666666698</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H48" s="3">
+        <v>50</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="W48" s="9"/>
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C49" s="3">
         <v>20210528</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E49" s="3">
+        <v>-91.938766666666695</v>
+      </c>
+      <c r="F49" s="3">
+        <v>42.349841666666698</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H49" s="3">
+        <v>50</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>486</v>
       </c>
       <c r="W49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C50" s="3">
         <v>20210528</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E50" s="3">
+        <v>-91.938758333333297</v>
+      </c>
+      <c r="F50" s="3">
+        <v>42.349838888888897</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H50" s="3">
+        <v>50</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="W50" s="9"/>
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C51" s="3">
         <v>20210528</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E51" s="3">
+        <v>-91.938758333333297</v>
+      </c>
+      <c r="F51" s="3">
+        <v>42.349833333333301</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H51" s="3">
+        <v>50</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="W51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C52" s="3">
         <v>20210528</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E52" s="3">
+        <v>-91.938744444444396</v>
+      </c>
+      <c r="F52" s="3">
+        <v>42.349833333333301</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H52" s="3">
+        <v>50</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="W52" s="9"/>
       <c r="Y52" s="9"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C53" s="3">
         <v>20210528</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E53" s="3">
+        <v>-91.938744444444396</v>
+      </c>
+      <c r="F53" s="3">
+        <v>42.349833333333301</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H53" s="3">
+        <v>50</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="W53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C54" s="3">
         <v>20210528</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E54" s="3">
+        <v>-91.938736111111098</v>
+      </c>
+      <c r="F54" s="3">
+        <v>42.349830555555599</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H54" s="3">
+        <v>50</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="W54" s="9"/>
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C55" s="3">
         <v>20210528</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E55" s="3">
+        <v>-91.938736111111098</v>
+      </c>
+      <c r="F55" s="3">
+        <v>42.349827777777797</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H55" s="3">
+        <v>50</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="W55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>398</v>
+        <v>276</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="3">
-        <v>20210528</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="W56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="W57" s="9"/>
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="W58" s="9"/>
       <c r="Y58" s="9"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="W59" s="9"/>
       <c r="Y59" s="9"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="W60" s="9"/>
       <c r="Y60" s="9"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="W61" s="9"/>
       <c r="Y61" s="9"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="W62" s="9"/>
       <c r="Y62" s="9"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="W63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="W64" s="9"/>
       <c r="Y64" s="9"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="W65" s="9"/>
       <c r="Y65" s="9"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="W66" s="9"/>
       <c r="Y66" s="9"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="W67" s="9"/>
       <c r="Y67" s="9"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="W68" s="9"/>
       <c r="Y68" s="9"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="W69" s="9"/>
       <c r="Y69" s="9"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="W70" s="9"/>
       <c r="Y70" s="9"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="W71" s="9"/>
       <c r="Y71" s="9"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="W72" s="9"/>
       <c r="Y72" s="9"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="W73" s="9"/>
       <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="W74" s="9"/>
       <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="W75" s="9"/>
       <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="W76" s="9"/>
       <c r="Y76" s="9"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="W77" s="9"/>
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="W78" s="9"/>
       <c r="Y78" s="9"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="W79" s="9"/>
       <c r="Y79" s="9"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="W80" s="9"/>
       <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="W81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="W82" s="9"/>
       <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="W83" s="9"/>
       <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="W84" s="9"/>
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="W85" s="9"/>
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="W86" s="9"/>
       <c r="Y86" s="9"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="W87" s="9"/>
       <c r="Y87" s="9"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="W88" s="9"/>
       <c r="Y88" s="9"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="W89" s="9"/>
       <c r="Y89" s="9"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="W90" s="9"/>
       <c r="Y90" s="9"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="W91" s="9"/>
       <c r="Y91" s="9"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="W92" s="9"/>
       <c r="Y92" s="9"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="W93" s="9"/>
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="W94" s="9"/>
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="W95" s="9"/>
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="W96" s="9"/>
       <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="W97" s="9"/>
       <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="W98" s="9"/>
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="W99" s="9"/>
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="W100" s="9"/>
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="W101" s="9"/>
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="W102" s="9"/>
       <c r="Y102" s="9"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="W103" s="9"/>
       <c r="Y103" s="9"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="W104" s="9"/>
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="W105" s="9"/>
       <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="W106" s="9"/>
       <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="W107" s="9"/>
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="W108" s="9"/>
       <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="W109" s="9"/>
       <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="W110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="W111" s="9"/>
       <c r="Y111" s="9"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="W112" s="9"/>
       <c r="Y112" s="9"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="W113" s="9"/>
       <c r="Y113" s="9"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="W114" s="9"/>
       <c r="Y114" s="9"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="W115" s="9"/>
       <c r="Y115" s="9"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="W116" s="9"/>
       <c r="Y116" s="9"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="W117" s="9"/>
       <c r="Y117" s="9"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="W118" s="9"/>
       <c r="Y118" s="9"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="W119" s="9"/>
       <c r="Y119" s="9"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="W120" s="9"/>
       <c r="Y120" s="9"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="W121" s="9"/>
       <c r="Y121" s="9"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="W122" s="9"/>
       <c r="Y122" s="9"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="W123" s="9"/>
       <c r="Y123" s="9"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="W124" s="9"/>
       <c r="Y124" s="9"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="W125" s="9"/>
       <c r="Y125" s="9"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="W126" s="9"/>
       <c r="Y126" s="9"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="W127" s="9"/>
       <c r="Y127" s="9"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="W128" s="9"/>
       <c r="Y128" s="9"/>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="W129" s="9"/>
       <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="W130" s="9"/>
       <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="W131" s="9"/>
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="W132" s="9"/>
       <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="W133" s="9"/>
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="W134" s="9"/>
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="W135" s="9"/>
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="W136" s="9"/>
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="W137" s="9"/>
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="W138" s="9"/>
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="W139" s="9"/>
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="W140" s="9"/>
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="W141" s="9"/>
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="W142" s="9"/>
       <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="W143" s="9"/>
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="W144" s="9"/>
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="W145" s="9"/>
       <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="W146" s="9"/>
       <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="W147" s="9"/>
       <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="W148" s="9"/>
       <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="W149" s="9"/>
       <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="W150" s="9"/>
       <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="W151" s="9"/>
       <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="W152" s="9"/>
       <c r="Y152" s="9"/>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="W153" s="9"/>
       <c r="Y153" s="9"/>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="W154" s="9"/>
       <c r="Y154" s="9"/>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="W155" s="9"/>
       <c r="Y155" s="9"/>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="W156" s="9"/>
       <c r="Y156" s="9"/>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="W157" s="9"/>
       <c r="Y157" s="9"/>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="W158" s="9"/>
       <c r="Y158" s="9"/>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="W159" s="9"/>
       <c r="Y159" s="9"/>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="W160" s="9"/>
       <c r="Y160" s="9"/>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="W161" s="9"/>
       <c r="Y161" s="9"/>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="W162" s="9"/>
       <c r="Y162" s="9"/>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="W163" s="9"/>
       <c r="Y163" s="9"/>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>227</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="W164" s="9"/>
       <c r="Y164" s="9"/>
     </row>
@@ -7452,15 +9255,8 @@
       <c r="W996" s="9"/>
       <c r="Y996" s="9"/>
     </row>
-    <row r="997" spans="23:25" x14ac:dyDescent="0.2">
-      <c r="W997" s="9"/>
-      <c r="Y997" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J2:N2"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -7497,10 +9293,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7511,7 +9307,7 @@
         <v>20180515</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7519,10 +9315,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7533,7 +9329,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7541,10 +9337,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -7552,7 +9348,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -7564,7 +9360,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -7575,7 +9371,7 @@
         <v>20180808</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -7586,7 +9382,7 @@
         <v>20180910</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -7597,7 +9393,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -7605,10 +9401,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -7616,7 +9412,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -7625,7 +9421,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1"/>
     </row>
